--- a/codigo/repaso_matricial/general_2D/fink_cercha.xlsx
+++ b/codigo/repaso_matricial/general_2D/fink_cercha.xlsx
@@ -568,9 +568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -580,7 +580,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,9 +613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -625,7 +625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,9 +663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>683640</xdr:colOff>
+      <xdr:colOff>683280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -675,7 +675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10143360" cy="9514440"/>
+          <a:ext cx="10155600" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,9 +708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>683640</xdr:colOff>
+      <xdr:colOff>683280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -720,7 +720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10143360" cy="9514440"/>
+          <a:ext cx="10155600" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,9 +758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -770,7 +770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,9 +803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -815,7 +815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,9 +848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -860,7 +860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,9 +893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -905,7 +905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -943,9 +943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -955,7 +955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,9 +988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1000,7 +1000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10200600" cy="9514440"/>
+          <a:ext cx="10215360" cy="9514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,13 +1032,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1251,7 +1251,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.92"/>
   </cols>
@@ -1486,13 +1486,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.01"/>
   </cols>
@@ -1563,8 +1563,9 @@
       <c r="C5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
+      <c r="D5" s="4" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,8 +1578,9 @@
       <c r="C6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
+      <c r="D6" s="4" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,8 +1593,9 @@
       <c r="C7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
+      <c r="D7" s="4" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,8 +1608,9 @@
       <c r="C8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
+      <c r="D8" s="4" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,8 +1623,9 @@
       <c r="C9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
+      <c r="D9" s="4" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,8 +1638,9 @@
       <c r="C10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
+      <c r="D10" s="4" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,10 +1653,24 @@
       <c r="C11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="D11" s="4" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1677,7 +1697,7 @@
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1950,7 +1970,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2092,7 +2112,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -2173,7 +2193,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -2253,7 +2273,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
